--- a/data/pca/factorExposure/factorExposure_2015-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01874975914671453</v>
+        <v>0.0112886196106003</v>
       </c>
       <c r="C2">
-        <v>-0.03897605220571259</v>
+        <v>-0.05440499854772048</v>
       </c>
       <c r="D2">
-        <v>0.1174849559857485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08001236539342926</v>
+      </c>
+      <c r="E2">
+        <v>-0.07811733403811065</v>
+      </c>
+      <c r="F2">
+        <v>0.04054802245928158</v>
+      </c>
+      <c r="G2">
+        <v>-0.1567566358818914</v>
+      </c>
+      <c r="H2">
+        <v>0.006710038879803145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04712512146149434</v>
+        <v>0.0201030573894735</v>
       </c>
       <c r="C4">
-        <v>-0.08110580829141895</v>
+        <v>-0.1173033850086808</v>
       </c>
       <c r="D4">
-        <v>0.08468997703626187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08477045870807898</v>
+      </c>
+      <c r="E4">
+        <v>-0.09201808240066843</v>
+      </c>
+      <c r="F4">
+        <v>0.0983815527697209</v>
+      </c>
+      <c r="G4">
+        <v>0.0001867977204607873</v>
+      </c>
+      <c r="H4">
+        <v>-0.07139176928549065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02998016067096183</v>
+        <v>0.03427792899898834</v>
       </c>
       <c r="C6">
-        <v>-0.02041915922867163</v>
+        <v>-0.03936424116021217</v>
       </c>
       <c r="D6">
-        <v>0.09025023226457518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07124402127513095</v>
+      </c>
+      <c r="E6">
+        <v>-0.1074116988754886</v>
+      </c>
+      <c r="F6">
+        <v>0.04925906108234454</v>
+      </c>
+      <c r="G6">
+        <v>-0.002347160113147019</v>
+      </c>
+      <c r="H6">
+        <v>0.02911597497402226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002620581139031205</v>
+        <v>0.00609551835759444</v>
       </c>
       <c r="C7">
-        <v>-0.03388372145636259</v>
+        <v>-0.04617077360429906</v>
       </c>
       <c r="D7">
-        <v>0.07252724008185299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04934033274315294</v>
+      </c>
+      <c r="E7">
+        <v>-0.09319569399498843</v>
+      </c>
+      <c r="F7">
+        <v>0.01241804597113719</v>
+      </c>
+      <c r="G7">
+        <v>0.007073263602663545</v>
+      </c>
+      <c r="H7">
+        <v>-0.02245061526969319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0002557955808049713</v>
+        <v>-0.005881521577086959</v>
       </c>
       <c r="C8">
-        <v>-0.03175458777095931</v>
+        <v>-0.04068011798824957</v>
       </c>
       <c r="D8">
-        <v>0.06957523710527719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04058841523097718</v>
+      </c>
+      <c r="E8">
+        <v>-0.06830125138103739</v>
+      </c>
+      <c r="F8">
+        <v>0.05279988043456382</v>
+      </c>
+      <c r="G8">
+        <v>-0.05599739368383502</v>
+      </c>
+      <c r="H8">
+        <v>-0.05513750590009612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03396098872252406</v>
+        <v>0.0132692459557363</v>
       </c>
       <c r="C9">
-        <v>-0.07202123223546691</v>
+        <v>-0.09635245279954825</v>
       </c>
       <c r="D9">
-        <v>0.08958854920211926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07474609744237293</v>
+      </c>
+      <c r="E9">
+        <v>-0.07807313479510158</v>
+      </c>
+      <c r="F9">
+        <v>0.06962923788681046</v>
+      </c>
+      <c r="G9">
+        <v>0.003425496242505426</v>
+      </c>
+      <c r="H9">
+        <v>-0.01738399748274658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1978838040137021</v>
+        <v>0.243920727390786</v>
       </c>
       <c r="C10">
-        <v>0.1532236315062765</v>
+        <v>0.08876041025399564</v>
       </c>
       <c r="D10">
-        <v>-0.04635051152579513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009784766032420546</v>
+      </c>
+      <c r="E10">
+        <v>0.02740652424584698</v>
+      </c>
+      <c r="F10">
+        <v>0.03571632931917659</v>
+      </c>
+      <c r="G10">
+        <v>0.01864442550399964</v>
+      </c>
+      <c r="H10">
+        <v>-0.00757640984278153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01132742637802927</v>
+        <v>0.009343643131239128</v>
       </c>
       <c r="C11">
-        <v>-0.04144182698728575</v>
+        <v>-0.06072178080863418</v>
       </c>
       <c r="D11">
-        <v>0.04149683466980023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02672472500492568</v>
+      </c>
+      <c r="E11">
+        <v>-0.05424033219872216</v>
+      </c>
+      <c r="F11">
+        <v>-0.0009090889299889931</v>
+      </c>
+      <c r="G11">
+        <v>0.01013223504167174</v>
+      </c>
+      <c r="H11">
+        <v>-0.00779939576576817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01062120925635313</v>
+        <v>0.01006648447738026</v>
       </c>
       <c r="C12">
-        <v>-0.04288857071662185</v>
+        <v>-0.05122130521110643</v>
       </c>
       <c r="D12">
-        <v>0.05002181165183118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0327274514456291</v>
+      </c>
+      <c r="E12">
+        <v>-0.04513749343378062</v>
+      </c>
+      <c r="F12">
+        <v>-0.003467636409903488</v>
+      </c>
+      <c r="G12">
+        <v>0.003451675837280268</v>
+      </c>
+      <c r="H12">
+        <v>0.02434982958498895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01202588848250359</v>
+        <v>0.00368802777763001</v>
       </c>
       <c r="C13">
-        <v>-0.03536064073260613</v>
+        <v>-0.06737616564531562</v>
       </c>
       <c r="D13">
-        <v>0.1170490244352241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1155638914926813</v>
+      </c>
+      <c r="E13">
+        <v>-0.1061743997780661</v>
+      </c>
+      <c r="F13">
+        <v>0.03523010023328693</v>
+      </c>
+      <c r="G13">
+        <v>-0.05652804221820389</v>
+      </c>
+      <c r="H13">
+        <v>0.07151866553689791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009410146984274651</v>
+        <v>0.002459246514452625</v>
       </c>
       <c r="C14">
-        <v>-0.0185770403319735</v>
+        <v>-0.03630074525825228</v>
       </c>
       <c r="D14">
-        <v>0.06245556416945054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05189798745439731</v>
+      </c>
+      <c r="E14">
+        <v>-0.1102731082964968</v>
+      </c>
+      <c r="F14">
+        <v>0.0399591935358593</v>
+      </c>
+      <c r="G14">
+        <v>-0.02117005676880792</v>
+      </c>
+      <c r="H14">
+        <v>0.03993621297059952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002596241807626793</v>
+        <v>-0.004421462985482995</v>
       </c>
       <c r="C15">
-        <v>-0.01244178112918212</v>
+        <v>-0.0319758610714178</v>
       </c>
       <c r="D15">
-        <v>0.05138547520522296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04764774807768753</v>
+      </c>
+      <c r="E15">
+        <v>-0.0596564689543041</v>
+      </c>
+      <c r="F15">
+        <v>0.01361557730211253</v>
+      </c>
+      <c r="G15">
+        <v>-0.01757687175988805</v>
+      </c>
+      <c r="H15">
+        <v>-0.01314986619231975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01076387379124287</v>
+        <v>0.009025512286342229</v>
       </c>
       <c r="C16">
-        <v>-0.04082448034913666</v>
+        <v>-0.05350975111201388</v>
       </c>
       <c r="D16">
-        <v>0.04572277427515292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02925834744120152</v>
+      </c>
+      <c r="E16">
+        <v>-0.04949270752284774</v>
+      </c>
+      <c r="F16">
+        <v>-0.00301938556061692</v>
+      </c>
+      <c r="G16">
+        <v>0.0228113102938435</v>
+      </c>
+      <c r="H16">
+        <v>0.005672504611393461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001233697273497267</v>
+        <v>-0.001344113380380511</v>
       </c>
       <c r="C19">
-        <v>-0.01920439822567249</v>
+        <v>-0.01505842282143634</v>
       </c>
       <c r="D19">
-        <v>0.05113295874295532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02696450730053651</v>
+      </c>
+      <c r="E19">
+        <v>-0.01074381153791568</v>
+      </c>
+      <c r="F19">
+        <v>0.01104956975986386</v>
+      </c>
+      <c r="G19">
+        <v>-0.02735768693024895</v>
+      </c>
+      <c r="H19">
+        <v>0.007247824575173898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.000101247694899161</v>
+        <v>0.004275480598799052</v>
       </c>
       <c r="C20">
-        <v>-0.03152833156237202</v>
+        <v>-0.04783024072630371</v>
       </c>
       <c r="D20">
-        <v>0.05662829841301125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05639471464386452</v>
+      </c>
+      <c r="E20">
+        <v>-0.06777930196926683</v>
+      </c>
+      <c r="F20">
+        <v>0.02606917281333298</v>
+      </c>
+      <c r="G20">
+        <v>0.02484154748988795</v>
+      </c>
+      <c r="H20">
+        <v>-0.01711378901036799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006250394129951577</v>
+        <v>0.003184723557831279</v>
       </c>
       <c r="C21">
-        <v>-0.03193706158751745</v>
+        <v>-0.0486823793505472</v>
       </c>
       <c r="D21">
-        <v>0.09325447284638209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08369770200664432</v>
+      </c>
+      <c r="E21">
+        <v>-0.08919119814155786</v>
+      </c>
+      <c r="F21">
+        <v>0.1057505902844959</v>
+      </c>
+      <c r="G21">
+        <v>-0.08281914063373925</v>
+      </c>
+      <c r="H21">
+        <v>0.07524973293930591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004087882815522275</v>
+        <v>-0.008834883536320707</v>
       </c>
       <c r="C22">
-        <v>-0.05723990902299621</v>
+        <v>-0.08526976938175454</v>
       </c>
       <c r="D22">
-        <v>0.2023432625567881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1906068693376558</v>
+      </c>
+      <c r="E22">
+        <v>-0.132196753902652</v>
+      </c>
+      <c r="F22">
+        <v>0.06051913830895456</v>
+      </c>
+      <c r="G22">
+        <v>-0.2026496346139653</v>
+      </c>
+      <c r="H22">
+        <v>-0.2145864425728793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004497791103540984</v>
+        <v>-0.005723744560110995</v>
       </c>
       <c r="C23">
-        <v>-0.0576860922222779</v>
+        <v>-0.08738823127641393</v>
       </c>
       <c r="D23">
-        <v>0.201445132582643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1941703697709382</v>
+      </c>
+      <c r="E23">
+        <v>-0.1296296203282392</v>
+      </c>
+      <c r="F23">
+        <v>0.0630972527438429</v>
+      </c>
+      <c r="G23">
+        <v>-0.1979738373868011</v>
+      </c>
+      <c r="H23">
+        <v>-0.2055202816333755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01744108052407678</v>
+        <v>0.01043031200113363</v>
       </c>
       <c r="C24">
-        <v>-0.06101082077105352</v>
+        <v>-0.07082673888357043</v>
       </c>
       <c r="D24">
-        <v>0.05757714197469303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0263612444256134</v>
+      </c>
+      <c r="E24">
+        <v>-0.06080615832286516</v>
+      </c>
+      <c r="F24">
+        <v>8.204033676821638e-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.0002340169862006876</v>
+      </c>
+      <c r="H24">
+        <v>-0.0004743886475250949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01686260340212935</v>
+        <v>0.01458566339725637</v>
       </c>
       <c r="C25">
-        <v>-0.05282880441125505</v>
+        <v>-0.06522395501130077</v>
       </c>
       <c r="D25">
-        <v>0.04463874249938553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03094589946443552</v>
+      </c>
+      <c r="E25">
+        <v>-0.04344305314992967</v>
+      </c>
+      <c r="F25">
+        <v>0.002253964947212023</v>
+      </c>
+      <c r="G25">
+        <v>0.01355258655398463</v>
+      </c>
+      <c r="H25">
+        <v>-1.5224553337997e-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007035773139664166</v>
+        <v>0.01721866471054182</v>
       </c>
       <c r="C26">
-        <v>-0.0194721805505833</v>
+        <v>-0.0350607142606317</v>
       </c>
       <c r="D26">
-        <v>0.05104883764914728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0304719675373659</v>
+      </c>
+      <c r="E26">
+        <v>-0.08011551384502796</v>
+      </c>
+      <c r="F26">
+        <v>0.05229636631194264</v>
+      </c>
+      <c r="G26">
+        <v>-0.02076557809503496</v>
+      </c>
+      <c r="H26">
+        <v>-0.003123287982548561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2782653379338705</v>
+        <v>0.3121994588399443</v>
       </c>
       <c r="C28">
-        <v>0.1727470036832021</v>
+        <v>0.09346678874107218</v>
       </c>
       <c r="D28">
-        <v>-0.006971117551890017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004135612298554752</v>
+      </c>
+      <c r="E28">
+        <v>0.05116631923502171</v>
+      </c>
+      <c r="F28">
+        <v>0.05568999445864815</v>
+      </c>
+      <c r="G28">
+        <v>-0.049630603453603</v>
+      </c>
+      <c r="H28">
+        <v>-0.05641122956149215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0007136873931458101</v>
+        <v>0.001473484502125511</v>
       </c>
       <c r="C29">
-        <v>-0.02150274414219355</v>
+        <v>-0.0425846684537815</v>
       </c>
       <c r="D29">
-        <v>0.06697804038458179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05934801102653804</v>
+      </c>
+      <c r="E29">
+        <v>-0.1239299947987858</v>
+      </c>
+      <c r="F29">
+        <v>0.04584398726173495</v>
+      </c>
+      <c r="G29">
+        <v>-0.01138714439137926</v>
+      </c>
+      <c r="H29">
+        <v>0.05538629020293546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02626364843354236</v>
+        <v>0.01619477257313922</v>
       </c>
       <c r="C30">
-        <v>-0.07643318658792785</v>
+        <v>-0.1019500366765747</v>
       </c>
       <c r="D30">
-        <v>0.1395674933884078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08837736846358077</v>
+      </c>
+      <c r="E30">
+        <v>-0.1294755168299214</v>
+      </c>
+      <c r="F30">
+        <v>0.02361964142696358</v>
+      </c>
+      <c r="G30">
+        <v>-4.851785358927963e-05</v>
+      </c>
+      <c r="H30">
+        <v>-0.02690629588970903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03168701677590063</v>
+        <v>0.01051616833323859</v>
       </c>
       <c r="C31">
-        <v>-0.08697444075506126</v>
+        <v>-0.0965199450481445</v>
       </c>
       <c r="D31">
-        <v>0.04550297969718983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01987045809239211</v>
+      </c>
+      <c r="E31">
+        <v>-0.03299545936684054</v>
+      </c>
+      <c r="F31">
+        <v>0.01850030398526271</v>
+      </c>
+      <c r="G31">
+        <v>-0.01716722926898249</v>
+      </c>
+      <c r="H31">
+        <v>-0.008396119370849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01831811671232028</v>
+        <v>0.01258275476339036</v>
       </c>
       <c r="C32">
-        <v>-0.04266895308748016</v>
+        <v>-0.05484154750218027</v>
       </c>
       <c r="D32">
-        <v>0.08320404239590118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07555168827462165</v>
+      </c>
+      <c r="E32">
+        <v>-0.02992444612085686</v>
+      </c>
+      <c r="F32">
+        <v>0.05905981242866626</v>
+      </c>
+      <c r="G32">
+        <v>-0.0467953817775749</v>
+      </c>
+      <c r="H32">
+        <v>0.01237211350908551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005448988922460652</v>
+        <v>0.006676206972142005</v>
       </c>
       <c r="C33">
-        <v>-0.04427933581726186</v>
+        <v>-0.06747850590812599</v>
       </c>
       <c r="D33">
-        <v>0.08822829127619418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07845345711367165</v>
+      </c>
+      <c r="E33">
+        <v>-0.09462452154989666</v>
+      </c>
+      <c r="F33">
+        <v>0.03729669090786755</v>
+      </c>
+      <c r="G33">
+        <v>-0.005083675022828478</v>
+      </c>
+      <c r="H33">
+        <v>0.005298904774104754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01187401673007017</v>
+        <v>0.008470429777157748</v>
       </c>
       <c r="C34">
-        <v>-0.06091494960802411</v>
+        <v>-0.06186304717125062</v>
       </c>
       <c r="D34">
-        <v>0.05628008768641855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01432932178379023</v>
+      </c>
+      <c r="E34">
+        <v>-0.04390282500767869</v>
+      </c>
+      <c r="F34">
+        <v>-0.03052488802623122</v>
+      </c>
+      <c r="G34">
+        <v>-0.003002453397746071</v>
+      </c>
+      <c r="H34">
+        <v>0.0106871808936178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0005323256175212162</v>
+        <v>0.004144292174296027</v>
       </c>
       <c r="C35">
-        <v>-0.0004958105791542082</v>
+        <v>-0.01771422892152709</v>
       </c>
       <c r="D35">
-        <v>0.00385342081277272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02627094403152479</v>
+      </c>
+      <c r="E35">
+        <v>-0.03490972361899359</v>
+      </c>
+      <c r="F35">
+        <v>0.0257560745340918</v>
+      </c>
+      <c r="G35">
+        <v>0.004858400160667914</v>
+      </c>
+      <c r="H35">
+        <v>0.01668161567423698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006435035819770477</v>
+        <v>0.01118666854057103</v>
       </c>
       <c r="C36">
-        <v>-0.01237660349693946</v>
+        <v>-0.02720114742505503</v>
       </c>
       <c r="D36">
-        <v>0.04945207384104988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04328719141186933</v>
+      </c>
+      <c r="E36">
+        <v>-0.07159764453539486</v>
+      </c>
+      <c r="F36">
+        <v>0.05251509736046214</v>
+      </c>
+      <c r="G36">
+        <v>-0.00712978984153342</v>
+      </c>
+      <c r="H36">
+        <v>0.003872018851584806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002176124582097163</v>
+        <v>0.007795553001231375</v>
       </c>
       <c r="C38">
-        <v>-0.008762674603180514</v>
+        <v>-0.02940677750838472</v>
       </c>
       <c r="D38">
-        <v>0.07778179289187905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07026843003563088</v>
+      </c>
+      <c r="E38">
+        <v>-0.07151088631101875</v>
+      </c>
+      <c r="F38">
+        <v>0.01673754634815719</v>
+      </c>
+      <c r="G38">
+        <v>-0.01518989283812382</v>
+      </c>
+      <c r="H38">
+        <v>-0.04314438364317585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01516754403693023</v>
+        <v>0.007585149198494724</v>
       </c>
       <c r="C39">
-        <v>-0.06510496779987303</v>
+        <v>-0.09353536975126396</v>
       </c>
       <c r="D39">
-        <v>0.09776809418108469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05128143506858486</v>
+      </c>
+      <c r="E39">
+        <v>-0.1126700904555769</v>
+      </c>
+      <c r="F39">
+        <v>-0.00502217835572181</v>
+      </c>
+      <c r="G39">
+        <v>0.007518756627475628</v>
+      </c>
+      <c r="H39">
+        <v>0.01846919505113012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01548233548727517</v>
+        <v>0.01326893252430428</v>
       </c>
       <c r="C40">
-        <v>-0.02935965406296528</v>
+        <v>-0.04486755858886247</v>
       </c>
       <c r="D40">
-        <v>0.1089697310202361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06393137234317724</v>
+      </c>
+      <c r="E40">
+        <v>-0.08692522584914467</v>
+      </c>
+      <c r="F40">
+        <v>-0.02496045117096186</v>
+      </c>
+      <c r="G40">
+        <v>-0.07088105635156837</v>
+      </c>
+      <c r="H40">
+        <v>0.01070159049331882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008314137616192187</v>
+        <v>0.01669923493734753</v>
       </c>
       <c r="C41">
-        <v>-0.008602982859330126</v>
+        <v>-0.02688518969732462</v>
       </c>
       <c r="D41">
-        <v>0.02246742004780728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03145356498630975</v>
+      </c>
+      <c r="E41">
+        <v>-0.02644139822904513</v>
+      </c>
+      <c r="F41">
+        <v>0.01828296012407259</v>
+      </c>
+      <c r="G41">
+        <v>-0.0007333426325049066</v>
+      </c>
+      <c r="H41">
+        <v>-0.005426756565220021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003325410283568883</v>
+        <v>0.007958319023345565</v>
       </c>
       <c r="C43">
-        <v>-0.006125807836303985</v>
+        <v>-0.02132423110568725</v>
       </c>
       <c r="D43">
-        <v>0.03812563085139539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03726420900204651</v>
+      </c>
+      <c r="E43">
+        <v>-0.04262799616469734</v>
+      </c>
+      <c r="F43">
+        <v>0.02055906526467795</v>
+      </c>
+      <c r="G43">
+        <v>0.004580166106247308</v>
+      </c>
+      <c r="H43">
+        <v>-0.01057888593911918</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01826988168429288</v>
+        <v>0.008192511692924433</v>
       </c>
       <c r="C44">
-        <v>-0.03427431035042008</v>
+        <v>-0.05545694593259844</v>
       </c>
       <c r="D44">
-        <v>0.08605325144207771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06796268569303497</v>
+      </c>
+      <c r="E44">
+        <v>-0.09901765386518074</v>
+      </c>
+      <c r="F44">
+        <v>0.04059712076997447</v>
+      </c>
+      <c r="G44">
+        <v>-0.02805029126185375</v>
+      </c>
+      <c r="H44">
+        <v>-0.02954976592309208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003746292331222032</v>
+        <v>4.924740574866381e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03140689200348933</v>
+        <v>-0.04400737171007182</v>
       </c>
       <c r="D46">
-        <v>0.06580840896801908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0359371491927554</v>
+      </c>
+      <c r="E46">
+        <v>-0.09221792679201905</v>
+      </c>
+      <c r="F46">
+        <v>0.03952395051357617</v>
+      </c>
+      <c r="G46">
+        <v>-0.01915569028437093</v>
+      </c>
+      <c r="H46">
+        <v>0.005752305430009138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06794113293480608</v>
+        <v>0.03094671573963688</v>
       </c>
       <c r="C47">
-        <v>-0.1123134691392036</v>
+        <v>-0.1234333721165578</v>
       </c>
       <c r="D47">
-        <v>0.05215792853812735</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01840124204793033</v>
+      </c>
+      <c r="E47">
+        <v>-0.004656986000541269</v>
+      </c>
+      <c r="F47">
+        <v>0.00364064151154192</v>
+      </c>
+      <c r="G47">
+        <v>0.008952157070589668</v>
+      </c>
+      <c r="H47">
+        <v>-0.01908670103380221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004969215551462023</v>
+        <v>0.01220218377407214</v>
       </c>
       <c r="C48">
-        <v>-0.01893940546444658</v>
+        <v>-0.03544074023505173</v>
       </c>
       <c r="D48">
-        <v>0.05182814032157077</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04818369884635872</v>
+      </c>
+      <c r="E48">
+        <v>-0.07450589757068735</v>
+      </c>
+      <c r="F48">
+        <v>0.06428529670306095</v>
+      </c>
+      <c r="G48">
+        <v>-0.01492390108876173</v>
+      </c>
+      <c r="H48">
+        <v>-0.007265978459768578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002799334146147045</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.00524313604003594</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003056316399539021</v>
+      </c>
+      <c r="E49">
+        <v>-0.0005257836276882781</v>
+      </c>
+      <c r="F49">
+        <v>-0.004753123506866771</v>
+      </c>
+      <c r="G49">
+        <v>0.01105163876682152</v>
+      </c>
+      <c r="H49">
+        <v>0.01105210170870429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03222239067386656</v>
+        <v>0.01481887247421557</v>
       </c>
       <c r="C50">
-        <v>-0.05914797451500024</v>
+        <v>-0.07701335286004347</v>
       </c>
       <c r="D50">
-        <v>0.06425729109756771</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03685499084342399</v>
+      </c>
+      <c r="E50">
+        <v>-0.04183078132936434</v>
+      </c>
+      <c r="F50">
+        <v>0.01237291433249927</v>
+      </c>
+      <c r="G50">
+        <v>-0.009331982802166825</v>
+      </c>
+      <c r="H50">
+        <v>-0.02318276703230408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006793154372644821</v>
+        <v>-0.004316035449364119</v>
       </c>
       <c r="C51">
-        <v>-0.007637231459075995</v>
+        <v>-0.02084068070734242</v>
       </c>
       <c r="D51">
-        <v>0.05171388640963654</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.02065880483257182</v>
+      </c>
+      <c r="E51">
+        <v>-0.06394696170098588</v>
+      </c>
+      <c r="F51">
+        <v>0.03389506832325487</v>
+      </c>
+      <c r="G51">
+        <v>-0.03770041848495461</v>
+      </c>
+      <c r="H51">
+        <v>-0.001119304022443062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1026316592225</v>
+        <v>0.05976149821139064</v>
       </c>
       <c r="C53">
-        <v>-0.1387663304094676</v>
+        <v>-0.1642816045212632</v>
       </c>
       <c r="D53">
-        <v>-0.005769603701735824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01989538374403734</v>
+      </c>
+      <c r="E53">
+        <v>0.03324197837348915</v>
+      </c>
+      <c r="F53">
+        <v>0.03197676684859352</v>
+      </c>
+      <c r="G53">
+        <v>-0.002983666573087763</v>
+      </c>
+      <c r="H53">
+        <v>-0.00901809993665926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005254331191475346</v>
+        <v>0.009977482845307129</v>
       </c>
       <c r="C54">
-        <v>-0.02630365304902225</v>
+        <v>-0.04333544370837682</v>
       </c>
       <c r="D54">
-        <v>0.08382153311424233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.06102512229521165</v>
+      </c>
+      <c r="E54">
+        <v>-0.06662514879796017</v>
+      </c>
+      <c r="F54">
+        <v>0.01659245777963449</v>
+      </c>
+      <c r="G54">
+        <v>-0.01552729029676952</v>
+      </c>
+      <c r="H54">
+        <v>-0.02221100454918309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08470558670831348</v>
+        <v>0.0415731795220684</v>
       </c>
       <c r="C55">
-        <v>-0.1134743682150909</v>
+        <v>-0.1277485570240584</v>
       </c>
       <c r="D55">
-        <v>-0.0004010126896710895</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04749492563034252</v>
+      </c>
+      <c r="E55">
+        <v>0.01827455876546491</v>
+      </c>
+      <c r="F55">
+        <v>-0.003299551248269196</v>
+      </c>
+      <c r="G55">
+        <v>-0.02172642352443187</v>
+      </c>
+      <c r="H55">
+        <v>-0.006257899496596965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1261834474913568</v>
+        <v>0.06131510310749642</v>
       </c>
       <c r="C56">
-        <v>-0.1626915364356807</v>
+        <v>-0.1923566449052883</v>
       </c>
       <c r="D56">
-        <v>0.02074398035863483</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04245053552450644</v>
+      </c>
+      <c r="E56">
+        <v>0.04713207176232101</v>
+      </c>
+      <c r="F56">
+        <v>-0.01007612968838419</v>
+      </c>
+      <c r="G56">
+        <v>-0.06839368285439615</v>
+      </c>
+      <c r="H56">
+        <v>-0.02904145539314321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009310993166799231</v>
+        <v>0.007722592070507049</v>
       </c>
       <c r="C58">
-        <v>-0.03116063981303329</v>
+        <v>-0.07785723846667678</v>
       </c>
       <c r="D58">
-        <v>0.1853387761874283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2081286365166286</v>
+      </c>
+      <c r="E58">
+        <v>-0.1412564291682959</v>
+      </c>
+      <c r="F58">
+        <v>0.1393065870704569</v>
+      </c>
+      <c r="G58">
+        <v>-0.143225087098079</v>
+      </c>
+      <c r="H58">
+        <v>-0.1367409818767695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2047551748361281</v>
+        <v>0.2606762044327577</v>
       </c>
       <c r="C59">
-        <v>0.1224667534379881</v>
+        <v>0.05596537011058597</v>
       </c>
       <c r="D59">
-        <v>0.04817275982478752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04590994280853576</v>
+      </c>
+      <c r="E59">
+        <v>0.001120701593858918</v>
+      </c>
+      <c r="F59">
+        <v>0.02666638105688496</v>
+      </c>
+      <c r="G59">
+        <v>-0.04018782069143696</v>
+      </c>
+      <c r="H59">
+        <v>0.02088121029106458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1729576935139933</v>
+        <v>0.1522821093666427</v>
       </c>
       <c r="C60">
-        <v>-0.1083761132736144</v>
+        <v>-0.1657205985370685</v>
       </c>
       <c r="D60">
-        <v>0.1166741738441108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02103437421446967</v>
+      </c>
+      <c r="E60">
+        <v>-0.1074213898639535</v>
+      </c>
+      <c r="F60">
+        <v>-0.1849635632243619</v>
+      </c>
+      <c r="G60">
+        <v>0.1937673570776231</v>
+      </c>
+      <c r="H60">
+        <v>0.195645454669515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02008703205635683</v>
+        <v>0.0134287962152584</v>
       </c>
       <c r="C61">
-        <v>-0.05763692212330149</v>
+        <v>-0.08092139342376399</v>
       </c>
       <c r="D61">
-        <v>0.06990033258530491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03760491766335188</v>
+      </c>
+      <c r="E61">
+        <v>-0.07769395710217189</v>
+      </c>
+      <c r="F61">
+        <v>-0.001202063915443002</v>
+      </c>
+      <c r="G61">
+        <v>0.001727943200066393</v>
+      </c>
+      <c r="H61">
+        <v>0.006461864111844683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>7.186885715614242e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>6.836143517230027e-05</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>6.983585768592831e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.0001703706515581634</v>
+      </c>
+      <c r="F62">
+        <v>0.0002097586211639545</v>
+      </c>
+      <c r="G62">
+        <v>-0.0002189377373089005</v>
+      </c>
+      <c r="H62">
+        <v>-0.0008024158354385048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008108378025545085</v>
+        <v>0.01555128653075665</v>
       </c>
       <c r="C63">
-        <v>-0.03013682896954353</v>
+        <v>-0.04856737221354027</v>
       </c>
       <c r="D63">
-        <v>0.06689909188227869</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02779090621387722</v>
+      </c>
+      <c r="E63">
+        <v>-0.09593427450846151</v>
+      </c>
+      <c r="F63">
+        <v>0.02594381881397061</v>
+      </c>
+      <c r="G63">
+        <v>0.004057839961932015</v>
+      </c>
+      <c r="H63">
+        <v>0.002556818888361573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04466957523091031</v>
+        <v>0.0155032713342644</v>
       </c>
       <c r="C64">
-        <v>-0.09608625620784252</v>
+        <v>-0.1021138400000395</v>
       </c>
       <c r="D64">
-        <v>0.01674787423406502</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003358834450670701</v>
+      </c>
+      <c r="E64">
+        <v>-0.03004554719930595</v>
+      </c>
+      <c r="F64">
+        <v>0.02602139526047938</v>
+      </c>
+      <c r="G64">
+        <v>0.03273705765922101</v>
+      </c>
+      <c r="H64">
+        <v>-0.01937012459942644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02636745930916127</v>
+        <v>0.02693784268370878</v>
       </c>
       <c r="C65">
-        <v>-0.01872061225885639</v>
+        <v>-0.04787157880394071</v>
       </c>
       <c r="D65">
-        <v>0.08966996250144735</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08229546455397621</v>
+      </c>
+      <c r="E65">
+        <v>-0.09091978414009198</v>
+      </c>
+      <c r="F65">
+        <v>-0.005902173989119248</v>
+      </c>
+      <c r="G65">
+        <v>0.06422289487319598</v>
+      </c>
+      <c r="H65">
+        <v>0.01077688720878344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02210884695668272</v>
+        <v>0.008396423869328215</v>
       </c>
       <c r="C66">
-        <v>-0.07597666395412811</v>
+        <v>-0.1140792356367116</v>
       </c>
       <c r="D66">
-        <v>0.1188926752092671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07928589000294776</v>
+      </c>
+      <c r="E66">
+        <v>-0.1111533406813165</v>
+      </c>
+      <c r="F66">
+        <v>-0.00201989905209258</v>
+      </c>
+      <c r="G66">
+        <v>-0.01661827514403358</v>
+      </c>
+      <c r="H66">
+        <v>-0.006422017935733648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01578245673340205</v>
+        <v>0.01672706301573594</v>
       </c>
       <c r="C67">
-        <v>-0.01643309923556585</v>
+        <v>-0.03495373373869097</v>
       </c>
       <c r="D67">
-        <v>0.04525684617530923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03626063659660726</v>
+      </c>
+      <c r="E67">
+        <v>-0.05254337782712946</v>
+      </c>
+      <c r="F67">
+        <v>-0.01279360568513744</v>
+      </c>
+      <c r="G67">
+        <v>0.003019721971897241</v>
+      </c>
+      <c r="H67">
+        <v>-0.02715647522924021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2186031696609972</v>
+        <v>0.2804437397341241</v>
       </c>
       <c r="C68">
-        <v>0.1355572986265226</v>
+        <v>0.06772867993752303</v>
       </c>
       <c r="D68">
-        <v>0.02831549260885745</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03671001339843762</v>
+      </c>
+      <c r="E68">
+        <v>-0.0195780929974486</v>
+      </c>
+      <c r="F68">
+        <v>0.02949290228130503</v>
+      </c>
+      <c r="G68">
+        <v>-0.03833276376573618</v>
+      </c>
+      <c r="H68">
+        <v>-0.02458698791110544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04866391279731915</v>
+        <v>0.01466060093982755</v>
       </c>
       <c r="C69">
-        <v>-0.1180361553458918</v>
+        <v>-0.1096898375156495</v>
       </c>
       <c r="D69">
-        <v>0.06554515332663781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01494168119251625</v>
+      </c>
+      <c r="E69">
+        <v>-0.01439747390058628</v>
+      </c>
+      <c r="F69">
+        <v>-0.006901107457805571</v>
+      </c>
+      <c r="G69">
+        <v>0.002873639200525923</v>
+      </c>
+      <c r="H69">
+        <v>0.004667996982724616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2323810258668651</v>
+        <v>0.2703055482379338</v>
       </c>
       <c r="C71">
-        <v>0.1564251796190612</v>
+        <v>0.08265290198821039</v>
       </c>
       <c r="D71">
-        <v>0.01682019556825362</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01397260450848367</v>
+      </c>
+      <c r="E71">
+        <v>0.0020326408088817</v>
+      </c>
+      <c r="F71">
+        <v>0.01633866472925371</v>
+      </c>
+      <c r="G71">
+        <v>-0.03666085252960854</v>
+      </c>
+      <c r="H71">
+        <v>-0.04058024632092776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09657909300616313</v>
+        <v>0.06474636528947413</v>
       </c>
       <c r="C72">
-        <v>-0.08140964167513325</v>
+        <v>-0.1252207070626122</v>
       </c>
       <c r="D72">
-        <v>0.09173487690751832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03050032022835364</v>
+      </c>
+      <c r="E72">
+        <v>-0.08785878915897224</v>
+      </c>
+      <c r="F72">
+        <v>-0.01140649030358127</v>
+      </c>
+      <c r="G72">
+        <v>0.0369177641517106</v>
+      </c>
+      <c r="H72">
+        <v>0.02065733633399631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1712777600108047</v>
+        <v>0.1581293079813088</v>
       </c>
       <c r="C73">
-        <v>-0.08630911304928963</v>
+        <v>-0.1699893735683291</v>
       </c>
       <c r="D73">
-        <v>0.1689290547764054</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0001759063318932697</v>
+      </c>
+      <c r="E73">
+        <v>-0.2467505952084984</v>
+      </c>
+      <c r="F73">
+        <v>-0.3079367801622143</v>
+      </c>
+      <c r="G73">
+        <v>0.351863851673971</v>
+      </c>
+      <c r="H73">
+        <v>0.248190774787312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09659109294908529</v>
+        <v>0.05070451919794244</v>
       </c>
       <c r="C74">
-        <v>-0.1224268259247464</v>
+        <v>-0.1404027584760056</v>
       </c>
       <c r="D74">
-        <v>-0.0545762435729335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04421243431924944</v>
+      </c>
+      <c r="E74">
+        <v>0.04544102907682662</v>
+      </c>
+      <c r="F74">
+        <v>0.03134759712354166</v>
+      </c>
+      <c r="G74">
+        <v>-0.003203932206813019</v>
+      </c>
+      <c r="H74">
+        <v>-0.01116650815845515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2089542623422898</v>
+        <v>0.098425170913753</v>
       </c>
       <c r="C75">
-        <v>-0.2153005093257754</v>
+        <v>-0.2576771672520502</v>
       </c>
       <c r="D75">
-        <v>-0.0319088394061982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09386841110313741</v>
+      </c>
+      <c r="E75">
+        <v>0.1352029866896173</v>
+      </c>
+      <c r="F75">
+        <v>-0.06656704123986305</v>
+      </c>
+      <c r="G75">
+        <v>-0.08937312264047879</v>
+      </c>
+      <c r="H75">
+        <v>-0.1324021451140748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1275434356637867</v>
+        <v>0.06120300222688686</v>
       </c>
       <c r="C76">
-        <v>-0.1478928417140475</v>
+        <v>-0.1782138069445945</v>
       </c>
       <c r="D76">
-        <v>0.01092558725029807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04131424394655429</v>
+      </c>
+      <c r="E76">
+        <v>0.04910365079364485</v>
+      </c>
+      <c r="F76">
+        <v>-0.0198288362587201</v>
+      </c>
+      <c r="G76">
+        <v>-0.03558099779790547</v>
+      </c>
+      <c r="H76">
+        <v>-0.01397199709391415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.008684496171650234</v>
+        <v>-0.002200772197064921</v>
       </c>
       <c r="C77">
-        <v>-0.08161047363976733</v>
+        <v>-0.1261599526697712</v>
       </c>
       <c r="D77">
-        <v>0.2490960869402531</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7141495490738063</v>
+      </c>
+      <c r="E77">
+        <v>0.6074098009660913</v>
+      </c>
+      <c r="F77">
+        <v>-0.1302875274824246</v>
+      </c>
+      <c r="G77">
+        <v>0.1777328513005819</v>
+      </c>
+      <c r="H77">
+        <v>0.03836093377846927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03106049082537664</v>
+        <v>0.02155635448447133</v>
       </c>
       <c r="C78">
-        <v>-0.08228286890976519</v>
+        <v>-0.09990402046373444</v>
       </c>
       <c r="D78">
-        <v>0.1419971888453004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05253028401896547</v>
+      </c>
+      <c r="E78">
+        <v>-0.1039480237074012</v>
+      </c>
+      <c r="F78">
+        <v>0.04534615685129963</v>
+      </c>
+      <c r="G78">
+        <v>-0.1070417905196831</v>
+      </c>
+      <c r="H78">
+        <v>0.009629845671632206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1096915232381492</v>
+        <v>0.05254097498365604</v>
       </c>
       <c r="C79">
-        <v>-0.2254370876632292</v>
+        <v>-0.2222436562421142</v>
       </c>
       <c r="D79">
-        <v>-0.632192247474096</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1576373038993046</v>
+      </c>
+      <c r="E79">
+        <v>0.1624971408886236</v>
+      </c>
+      <c r="F79">
+        <v>0.7664224328644461</v>
+      </c>
+      <c r="G79">
+        <v>0.4286414822724731</v>
+      </c>
+      <c r="H79">
+        <v>0.1008292452882385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006826767260634567</v>
+        <v>0.009589363810997341</v>
       </c>
       <c r="C80">
-        <v>-0.04180429681738369</v>
+        <v>-0.04367863791152298</v>
       </c>
       <c r="D80">
-        <v>0.02637575969745082</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.003525565912818293</v>
+      </c>
+      <c r="E80">
+        <v>-0.06373430545752348</v>
+      </c>
+      <c r="F80">
+        <v>-0.001872658322389957</v>
+      </c>
+      <c r="G80">
+        <v>-0.0166625445336285</v>
+      </c>
+      <c r="H80">
+        <v>0.07240923523613745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09695833747919826</v>
+        <v>0.03234088791711678</v>
       </c>
       <c r="C81">
-        <v>-0.1404258988928996</v>
+        <v>-0.1576262224627283</v>
       </c>
       <c r="D81">
-        <v>-0.06911004341216415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.05938750021517401</v>
+      </c>
+      <c r="E81">
+        <v>0.07278948829932219</v>
+      </c>
+      <c r="F81">
+        <v>0.04977069101172171</v>
+      </c>
+      <c r="G81">
+        <v>-0.07061544933565361</v>
+      </c>
+      <c r="H81">
+        <v>-0.02078276808123104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2031339533258623</v>
+        <v>0.07929212813377218</v>
       </c>
       <c r="C82">
-        <v>-0.3049900777261216</v>
+        <v>-0.2883439385697043</v>
       </c>
       <c r="D82">
-        <v>-0.06104482083294143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1803572315754207</v>
+      </c>
+      <c r="E82">
+        <v>0.1645986358334131</v>
+      </c>
+      <c r="F82">
+        <v>-0.1320892089349087</v>
+      </c>
+      <c r="G82">
+        <v>-0.1709924586373245</v>
+      </c>
+      <c r="H82">
+        <v>-0.04680034983719995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01141220903759044</v>
+        <v>-0.006694184799331793</v>
       </c>
       <c r="C83">
-        <v>-0.04637224483370327</v>
+        <v>-0.01250048744526132</v>
       </c>
       <c r="D83">
-        <v>0.006363224280660597</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0404012853147538</v>
+      </c>
+      <c r="E83">
+        <v>0.1055743201331213</v>
+      </c>
+      <c r="F83">
+        <v>0.1367652231953781</v>
+      </c>
+      <c r="G83">
+        <v>-0.4869097145362396</v>
+      </c>
+      <c r="H83">
+        <v>0.7841992496861661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001471604023941235</v>
+        <v>-0.003496638530470518</v>
       </c>
       <c r="C84">
-        <v>-0.004614387274553622</v>
+        <v>-0.01885575706666604</v>
       </c>
       <c r="D84">
-        <v>0.01001512421613394</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03688646414993788</v>
+      </c>
+      <c r="E84">
+        <v>-0.03697204945426238</v>
+      </c>
+      <c r="F84">
+        <v>0.03752045444927646</v>
+      </c>
+      <c r="G84">
+        <v>-0.03430461718765847</v>
+      </c>
+      <c r="H84">
+        <v>-0.06228548066324053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.124847994054097</v>
+        <v>0.05552404569956634</v>
       </c>
       <c r="C85">
-        <v>-0.1580685023896779</v>
+        <v>-0.1777684681026772</v>
       </c>
       <c r="D85">
-        <v>-0.09155921284222296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1159534439586439</v>
+      </c>
+      <c r="E85">
+        <v>0.05423953547152495</v>
+      </c>
+      <c r="F85">
+        <v>0.04078681981467638</v>
+      </c>
+      <c r="G85">
+        <v>-0.01005695806389718</v>
+      </c>
+      <c r="H85">
+        <v>-0.03365681553000537</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02546192067604884</v>
+        <v>0.01593820464364781</v>
       </c>
       <c r="C86">
-        <v>-0.01004650863606617</v>
+        <v>-0.0427558059393612</v>
       </c>
       <c r="D86">
-        <v>0.08391075411145965</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08786593941104502</v>
+      </c>
+      <c r="E86">
+        <v>-0.02684915308474351</v>
+      </c>
+      <c r="F86">
+        <v>0.04825789867601525</v>
+      </c>
+      <c r="G86">
+        <v>-0.030990696547875</v>
+      </c>
+      <c r="H86">
+        <v>-0.05816126930154162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02226978047442341</v>
+        <v>0.01179999090598489</v>
       </c>
       <c r="C87">
-        <v>-0.04109842003828048</v>
+        <v>-0.06908147746075993</v>
       </c>
       <c r="D87">
-        <v>0.1195379010074414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1016666275236701</v>
+      </c>
+      <c r="E87">
+        <v>-0.08635207220047691</v>
+      </c>
+      <c r="F87">
+        <v>0.05168708354372625</v>
+      </c>
+      <c r="G87">
+        <v>-0.06999873405484867</v>
+      </c>
+      <c r="H87">
+        <v>-0.02910286765279278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04391137574022014</v>
+        <v>0.03490166120223039</v>
       </c>
       <c r="C88">
-        <v>-0.05412347160715901</v>
+        <v>-0.07148285981215252</v>
       </c>
       <c r="D88">
-        <v>-0.001580091079731739</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005053607420799021</v>
+      </c>
+      <c r="E88">
+        <v>-0.03045992579165128</v>
+      </c>
+      <c r="F88">
+        <v>0.01337614462248113</v>
+      </c>
+      <c r="G88">
+        <v>0.01729304197612906</v>
+      </c>
+      <c r="H88">
+        <v>-0.000128426966700338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3494663266713119</v>
+        <v>0.3989021983832411</v>
       </c>
       <c r="C89">
-        <v>0.2865214840072911</v>
+        <v>0.1619070615678713</v>
       </c>
       <c r="D89">
-        <v>0.01072595809778818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04781599074829444</v>
+      </c>
+      <c r="E89">
+        <v>0.008118122270951128</v>
+      </c>
+      <c r="F89">
+        <v>0.06509986215022875</v>
+      </c>
+      <c r="G89">
+        <v>-0.08608169976977308</v>
+      </c>
+      <c r="H89">
+        <v>0.09211566641979647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2796294111768354</v>
+        <v>0.3217681649557895</v>
       </c>
       <c r="C90">
-        <v>0.2070329873202392</v>
+        <v>0.1006809165311518</v>
       </c>
       <c r="D90">
-        <v>0.06451687882922789</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03412139561833154</v>
+      </c>
+      <c r="E90">
+        <v>-0.01819359473798691</v>
+      </c>
+      <c r="F90">
+        <v>-0.008673982917951392</v>
+      </c>
+      <c r="G90">
+        <v>-0.04668297388610952</v>
+      </c>
+      <c r="H90">
+        <v>-0.01370748728504186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1333170151083234</v>
+        <v>0.06453054008679306</v>
       </c>
       <c r="C91">
-        <v>-0.1991481026039151</v>
+        <v>-0.1992236749431711</v>
       </c>
       <c r="D91">
-        <v>-0.09670754452156502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08151615656734008</v>
+      </c>
+      <c r="E91">
+        <v>0.1178942807402196</v>
+      </c>
+      <c r="F91">
+        <v>0.05129172742657015</v>
+      </c>
+      <c r="G91">
+        <v>-0.02908087986300114</v>
+      </c>
+      <c r="H91">
+        <v>0.002302557588926106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2666672139180301</v>
+        <v>0.3370590429379024</v>
       </c>
       <c r="C92">
-        <v>0.2401139859557502</v>
+        <v>0.1466764234233898</v>
       </c>
       <c r="D92">
-        <v>-0.03397581732362587</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04411577691674801</v>
+      </c>
+      <c r="E92">
+        <v>0.04861463027287459</v>
+      </c>
+      <c r="F92">
+        <v>0.04950210660279944</v>
+      </c>
+      <c r="G92">
+        <v>0.005608132753193738</v>
+      </c>
+      <c r="H92">
+        <v>-0.1347605836073395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2967290159703237</v>
+        <v>0.3302569897077992</v>
       </c>
       <c r="C93">
-        <v>0.2200066364627322</v>
+        <v>0.1202553418623899</v>
       </c>
       <c r="D93">
-        <v>-0.03117395777135044</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02348889638903258</v>
+      </c>
+      <c r="E93">
+        <v>0.004711247934684177</v>
+      </c>
+      <c r="F93">
+        <v>0.01328462634611636</v>
+      </c>
+      <c r="G93">
+        <v>0.0237353718778863</v>
+      </c>
+      <c r="H93">
+        <v>-0.03530390830385335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2435371096356612</v>
+        <v>0.1207246854034643</v>
       </c>
       <c r="C94">
-        <v>-0.2848526333915948</v>
+        <v>-0.3115131744407603</v>
       </c>
       <c r="D94">
-        <v>-0.1237899105389763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2772692629904522</v>
+      </c>
+      <c r="E94">
+        <v>0.2156450588554225</v>
+      </c>
+      <c r="F94">
+        <v>-0.1731533256987622</v>
+      </c>
+      <c r="G94">
+        <v>-0.2470996821904722</v>
+      </c>
+      <c r="H94">
+        <v>-0.1425713143115059</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.005842723093427143</v>
+        <v>0.01593455862321117</v>
       </c>
       <c r="C95">
-        <v>-0.05783759023341539</v>
+        <v>-0.08337254357645739</v>
       </c>
       <c r="D95">
-        <v>0.1072141272114677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1407348902290284</v>
+      </c>
+      <c r="E95">
+        <v>0.02706579648149167</v>
+      </c>
+      <c r="F95">
+        <v>-0.04173400777043867</v>
+      </c>
+      <c r="G95">
+        <v>0.06805903229051677</v>
+      </c>
+      <c r="H95">
+        <v>0.01244972823453106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002210487822682058</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001103959107367547</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0009222468969595779</v>
+      </c>
+      <c r="E97">
+        <v>-0.004068038857353532</v>
+      </c>
+      <c r="F97">
+        <v>0.0002200434666684211</v>
+      </c>
+      <c r="G97">
+        <v>0.0008142374743134746</v>
+      </c>
+      <c r="H97">
+        <v>-0.006535739231891598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1445564886563699</v>
+        <v>0.1333950955380198</v>
       </c>
       <c r="C98">
-        <v>-0.0999879391092328</v>
+        <v>-0.1640862157688158</v>
       </c>
       <c r="D98">
-        <v>0.1192126825002052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01884181786052574</v>
+      </c>
+      <c r="E98">
+        <v>-0.1589123350357909</v>
+      </c>
+      <c r="F98">
+        <v>-0.253911338725467</v>
+      </c>
+      <c r="G98">
+        <v>0.2683433395048269</v>
+      </c>
+      <c r="H98">
+        <v>0.195935590591885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0001388369553338633</v>
+        <v>0.001566060786934029</v>
       </c>
       <c r="C101">
-        <v>-0.02067069411681058</v>
+        <v>-0.0416863896615288</v>
       </c>
       <c r="D101">
-        <v>0.06686725007900934</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05918874295481613</v>
+      </c>
+      <c r="E101">
+        <v>-0.1225578134353271</v>
+      </c>
+      <c r="F101">
+        <v>0.04518172142423624</v>
+      </c>
+      <c r="G101">
+        <v>-0.01146558863370982</v>
+      </c>
+      <c r="H101">
+        <v>0.05475947382708807</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0834704403248297</v>
+        <v>0.01993442176625063</v>
       </c>
       <c r="C102">
-        <v>-0.1591939165204131</v>
+        <v>-0.1294222628380641</v>
       </c>
       <c r="D102">
-        <v>0.002436409470463694</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07197222679283809</v>
+      </c>
+      <c r="E102">
+        <v>0.07952398323721251</v>
+      </c>
+      <c r="F102">
+        <v>-0.07552484859041579</v>
+      </c>
+      <c r="G102">
+        <v>-0.04570587086443091</v>
+      </c>
+      <c r="H102">
+        <v>0.004110917242988459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
